--- a/Treinamento Hackathon/Despesas_Tratado.xlsx
+++ b/Treinamento Hackathon/Despesas_Tratado.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/2024</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>03/2024</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>04/2024</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>05/2024</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>06/2024</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>07/2024</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>08/2024</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>12/2024</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/2025</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/2025</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>03/2025</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>04/2025</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>05/2025</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>06/2025</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>08/2025</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>09/2025</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>10/2025</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/2025</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>12/2025</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/2024</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/2024</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>03/2024</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>04/2024</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>05/2024</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>06/2024</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>07/2024</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>08/2024</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>12/2024</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/2025</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/2025</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>03/2025</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>04/2025</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>05/2025</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>06/2025</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>08/2025</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>09/2025</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>10/2025</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/2025</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>12/2025</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/2024</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/2024</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>03/2024</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>04/2024</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>05/2024</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>06/2024</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>07/2024</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>08/2024</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>12/2024</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/2025</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/2025</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>03/2025</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>04/2025</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>05/2025</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>06/2025</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>08/2025</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>09/2025</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>10/2025</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/2025</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>12/2025</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/2024</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/2024</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>03/2024</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>04/2024</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>05/2024</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>06/2024</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>07/2024</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>08/2024</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>12/2024</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/2025</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/2025</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>03/2025</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>04/2025</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>05/2025</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>06/2025</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>08/2025</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>09/2025</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>10/2025</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/2025</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>12/2025</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/2024</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>02/2024</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>03/2024</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>04/2024</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>05/2024</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>06/2024</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>07/2024</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>08/2024</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>12/2024</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/2025</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>02/2025</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>03/2025</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>04/2025</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>05/2025</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>06/2025</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/2025</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>08/2025</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>09/2025</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>10/2025</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/2025</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>01/12/2025</t>
+          <t>12/2025</t>
         </is>
       </c>
     </row>
